--- a/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
+++ b/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.4.3-hong-kong-COPY\InputData\elec\BPaFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipE\InputData\elec\BPaFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="23955" windowHeight="10305" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="23955" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>Source:</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>offshore wind</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
   </si>
 </sst>
 </file>
@@ -181,11 +190,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,21 +504,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,116 +526,116 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -639,31 +651,29 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.265625" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -671,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -679,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -687,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -695,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -703,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -711,7 +721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -719,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -727,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -735,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -743,21 +753,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13">
         <f>B2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
       <c r="B14">
         <f>B6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <f>B9</f>
         <v>0</v>
       </c>
     </row>
@@ -771,21 +808,21 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.265625" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -793,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -801,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -809,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -817,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -825,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -833,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -841,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -849,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -857,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -865,7 +902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -873,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -882,12 +919,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
       <c r="B14">
         <f>B6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <f>B9</f>
         <v>0</v>
       </c>
     </row>
@@ -1149,13 +1213,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7336703-072B-47E1-B0A0-23FCDA6F9285}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACBD0AA7-7701-469E-B45F-49FAA7D0F00D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A812B077-F8F4-4C3D-93C9-C4454EEC8803}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B7AC5C8-7235-462B-8E99-1A73960658C7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E6048B2-50E6-455B-8F0E-EA27C3C64E0E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E516F36-DB0D-4BA4-9944-A440AAB7E9CF}"/>
 </file>
--- a/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
+++ b/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipE\InputData\elec\BPaFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\WRI\香港2050模型工作\Data_Electricity\BPaFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="23955" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6990"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>Source:</t>
   </si>
@@ -29,9 +29,6 @@
     <t>none</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>natural gas nonpeaker</t>
   </si>
   <si>
@@ -140,24 +137,87 @@
     <t>offshore wind</t>
   </si>
   <si>
-    <t>crude oil</t>
-  </si>
-  <si>
-    <t>heavy or residual fuel oil</t>
-  </si>
-  <si>
-    <t>municipal solid waste</t>
+    <t>Notes(from the US model)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes(For this datasheet for HK)):</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">can be used to fullfill the peak time demand. According to gas generator's properties, it </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>can also provide flexibility points for solar PV and wind.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Therefore, we mark the boolean value of "natural gas peaker" as 1.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Next, as stated in the EPS documentation for elec sector,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"Which types of plants count as peakers can vary based on model version (country or region represented), </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>but often natural gas peakers and petroleum-fired power plants will qualify".</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>So, although the information from HK's elec companies didn't indicate that the oil plant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>can also be use as peaker, we mark the "pertoleum" 1, same with the US model.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.The CLP company in HK has the permission to use 600 MW capacity of the Guangzhou Pumped Storage Power Station,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculated at different part. So I think maybe the "hydro" type in this sheet refers not to the "Pumped Hydro",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>and the flexibility points from Pumed Hydro will be calculated based on BPHC(BAU Pumped Hydro Capacity).</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. From the publication of HK Electricity, we know that the gas turbine generators that it owns</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>and from the public information we know it is also used for provide flexibility.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">But in the framwork of EPS model, the flexibility points from Peaker Capacity and Pumped Hydro seems to be </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>For this reason, I didn't mark the "hydro" as 1 in neither of the two sheets.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. To sum up, the current settings(_v1_190405) are totally the same with those in the EPS US model.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -165,8 +225,37 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -190,17 +279,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -216,7 +305,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -502,23 +591,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,121 +617,173 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="J11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="J16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="J18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="J19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="J20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="J21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="J22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -651,23 +794,25 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>12</v>
+      <c r="B1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -675,7 +820,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -683,7 +828,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -691,15 +836,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -707,7 +852,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -715,7 +860,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -723,7 +868,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -731,7 +876,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -739,15 +884,15 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -755,7 +900,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <f>B2</f>
@@ -764,42 +909,17 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <f>B6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15">
-        <f>B11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16">
-        <f>B11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17">
-        <f>B9</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -808,23 +928,25 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>12</v>
+      <c r="B1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -832,7 +954,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -840,7 +962,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -848,15 +970,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -864,7 +986,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -872,7 +994,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -880,7 +1002,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -888,7 +1010,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -896,15 +1018,15 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -912,7 +1034,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <f>B2</f>
@@ -921,42 +1043,17 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <f>B6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15">
-        <f>B11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16">
-        <f>B11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17">
-        <f>B9</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1213,13 +1310,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACBD0AA7-7701-469E-B45F-49FAA7D0F00D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFCB93A0-ED0B-4712-8FD6-BC9E0CAA5B15}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B7AC5C8-7235-462B-8E99-1A73960658C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44A9027C-D01E-4A22-9539-CEE85C1C95C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E516F36-DB0D-4BA4-9944-A440AAB7E9CF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2990E50A-73CE-4FFA-9AB4-B6074529BDCC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>